--- a/output_by_subject/MM603.xlsx
+++ b/output_by_subject/MM603.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,6 +1191,116 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2011MM17</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MM603</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2011MM13</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MM603</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2011MM10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MM603</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2011MM08</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MM603</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2011MM01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MM603</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
